--- a/data/ramp/Tier4.xlsx
+++ b/data/ramp/Tier4.xlsx
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AT2" t="n">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="AU2" t="n">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="AV2" t="n">
-        <v>1380</v>
+        <v>1440</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>540</v>
       </c>
       <c r="AU4" t="n">
-        <v>1020</v>
+        <v>1140</v>
       </c>
       <c r="AV4" t="n">
-        <v>1380</v>
+        <v>1440</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>240</v>
@@ -1324,13 +1324,13 @@
         <v>360</v>
       </c>
       <c r="AT5" t="n">
-        <v>600</v>
+        <v>1440</v>
       </c>
       <c r="AU5" t="n">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>240</v>
@@ -1484,22 +1484,22 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AT6" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="AU6" t="n">
-        <v>1140</v>
+        <v>720</v>
       </c>
       <c r="AV6" t="n">
         <v>1380</v>
       </c>
       <c r="AW6" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="AY6" t="n">
         <v>0.35</v>
@@ -1647,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1080</v>
+        <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>1260</v>
+        <v>1020</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>1100</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>30</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="AT8" t="n">
-        <v>540</v>
+        <v>1020</v>
       </c>
       <c r="AU8" t="n">
-        <v>1020</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
         <v>0</v>
